--- a/scene_cat_exp_2023.2.2_english/input_files/34_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/34_scenecat_block_order.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
+          <t>kitchens_1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -370,31 +370,31 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_1</t>
+          <t>bedrooms_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>kitchens_2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>living_rooms_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>living_rooms_2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bedrooms_2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>kitchens_2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -403,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -411,13 +411,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -440,13 +440,13 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -480,30 +480,30 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
